--- a/pubg-weapon-stats.xlsx
+++ b/pubg-weapon-stats.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analysis Uneeq Internship\pupg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD71947-4D34-4EFC-B71B-499DF48AD7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ECD2F7-4B49-4B37-A43A-4AD9E7F5041C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4228BA25-DA61-4765-B594-3F0D9C9A4FCD}"/>
   </bookViews>
   <sheets>
     <sheet name="pubg-weapon-stats" sheetId="1" r:id="rId1"/>
     <sheet name="Pivot Tables" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="dashboard" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'pubg-weapon-stats'!$A$1:$U$45</definedName>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="76" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="93">
   <si>
     <t>Weapon Name</t>
   </si>
@@ -330,6 +330,15 @@
   </si>
   <si>
     <t>Medium (30-45)</t>
+  </si>
+  <si>
+    <t>Number of Weabon Name</t>
+  </si>
+  <si>
+    <t>Number of Weabon Type</t>
+  </si>
+  <si>
+    <t>Number of Fire Mode</t>
   </si>
 </sst>
 </file>
@@ -838,9 +847,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1569,27 +1578,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1652,27 +1641,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2848,7 +2817,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-8730-4EA1-AEFC-A7497B41CC25}"/>
+              <c16:uniqueId val="{0000000B-1AD5-4269-8F71-246DE59B828F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2943,7 +2912,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-8730-4EA1-AEFC-A7497B41CC25}"/>
+              <c16:uniqueId val="{0000000C-1AD5-4269-8F71-246DE59B828F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3026,7 +2995,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-8730-4EA1-AEFC-A7497B41CC25}"/>
+              <c16:uniqueId val="{0000000D-1AD5-4269-8F71-246DE59B828F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3106,7 +3075,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-8730-4EA1-AEFC-A7497B41CC25}"/>
+              <c16:uniqueId val="{0000000E-1AD5-4269-8F71-246DE59B828F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4763,7 +4732,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-4932-486A-8A46-36C529C5A971}"/>
+              <c16:uniqueId val="{00000008-D927-4518-B8C5-01717B12947A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4846,7 +4815,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-4932-486A-8A46-36C529C5A971}"/>
+              <c16:uniqueId val="{00000009-D927-4518-B8C5-01717B12947A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4926,7 +4895,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-4932-486A-8A46-36C529C5A971}"/>
+              <c16:uniqueId val="{0000000A-D927-4518-B8C5-01717B12947A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5003,7 +4972,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-4932-486A-8A46-36C529C5A971}"/>
+              <c16:uniqueId val="{0000000B-D927-4518-B8C5-01717B12947A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5983,27 +5952,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6719,27 +6668,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6802,27 +6731,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6885,27 +6794,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6968,27 +6857,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7051,27 +6920,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent5">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7134,27 +6983,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7467,7 +7296,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-C8D2-4584-8F8F-85497DC380DD}"/>
+              <c16:uniqueId val="{0000000C-1706-4953-A98A-52CE64F01B90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7570,7 +7399,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-C8D2-4584-8F8F-85497DC380DD}"/>
+              <c16:uniqueId val="{0000000D-1706-4953-A98A-52CE64F01B90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7661,7 +7490,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-C8D2-4584-8F8F-85497DC380DD}"/>
+              <c16:uniqueId val="{0000000E-1706-4953-A98A-52CE64F01B90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7749,7 +7578,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-C8D2-4584-8F8F-85497DC380DD}"/>
+              <c16:uniqueId val="{0000000F-1706-4953-A98A-52CE64F01B90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8273,27 +8102,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -8356,27 +8165,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -8439,27 +8228,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -8522,27 +8291,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -8605,27 +8354,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent5">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -8688,27 +8417,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -9021,7 +8730,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-1198-4765-9C7B-1B81281A5D46}"/>
+              <c16:uniqueId val="{0000000C-0371-40C2-AF67-A0AA7A5D18F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9124,7 +8833,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-1198-4765-9C7B-1B81281A5D46}"/>
+              <c16:uniqueId val="{0000000D-0371-40C2-AF67-A0AA7A5D18F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9215,7 +8924,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-1198-4765-9C7B-1B81281A5D46}"/>
+              <c16:uniqueId val="{0000000E-0371-40C2-AF67-A0AA7A5D18F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9303,7 +9012,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-1198-4765-9C7B-1B81281A5D46}"/>
+              <c16:uniqueId val="{0000000F-0371-40C2-AF67-A0AA7A5D18F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9797,27 +9506,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -9880,27 +9569,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -9963,27 +9632,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -10046,27 +9695,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -10129,27 +9758,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent5">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -10390,7 +9999,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-D3B9-41CF-9F10-A4D2266B73B9}"/>
+              <c16:uniqueId val="{00000009-9D76-446E-901B-6F29290324E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10481,7 +10090,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-D3B9-41CF-9F10-A4D2266B73B9}"/>
+              <c16:uniqueId val="{0000000A-9D76-446E-901B-6F29290324E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10569,7 +10178,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-D3B9-41CF-9F10-A4D2266B73B9}"/>
+              <c16:uniqueId val="{0000000B-9D76-446E-901B-6F29290324E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10654,7 +10263,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-D3B9-41CF-9F10-A4D2266B73B9}"/>
+              <c16:uniqueId val="{0000000C-9D76-446E-901B-6F29290324E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10822,8 +10431,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.7468988930731485"/>
           <c:y val="0.16018343951137565"/>
-          <c:w val="0.25310100995872831"/>
-          <c:h val="0.55493567788331388"/>
+          <c:w val="0.22389420979369662"/>
+          <c:h val="0.38900687206630291"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -16805,8 +16414,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="26" name="Damage Range">
@@ -16829,7 +16438,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -16883,8 +16492,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>129541</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="29" name="Weapon Type">
@@ -16907,7 +16516,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -16961,8 +16570,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>167641</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="30" name="Bullet Type">
@@ -16985,7 +16594,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17039,8 +16648,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="31" name="Fire Mode">
@@ -17063,7 +16672,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17117,8 +16726,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="32" name="Shots to Kill (Chest)">
@@ -17141,7 +16750,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17195,8 +16804,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>68581</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="33" name="Shots to Kill (Head)">
@@ -17219,7 +16828,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17373,13 +16982,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17447,15 +17056,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17717,8 +17326,8 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="22" name="Damage Range 2">
@@ -17741,7 +17350,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -17780,8 +17389,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="25" name="Weapon Type 2">
@@ -17804,7 +17413,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -17843,8 +17452,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="26" name="Fire Mode 2">
@@ -17867,7 +17476,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -17911,16 +17520,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17935,7 +17544,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5242560" y="114300"/>
+          <a:off x="3329940" y="99060"/>
           <a:ext cx="4099560" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -17970,6 +17579,500 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E755535-4DA6-B3A8-08E1-1C02380796B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10683240" y="114300"/>
+          <a:ext cx="1386840" cy="739140"/>
+          <a:chOff x="2529840" y="289560"/>
+          <a:chExt cx="1386840" cy="739140"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="'pubg-weapon-stats'!X24">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF612BAD-E181-6F0B-0947-BC1D59486C95}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2529840" y="289560"/>
+            <a:ext cx="1386840" cy="739140"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{3B0B3BB6-F8AC-4DA4-8CB0-403C609AC0F7}" type="TxLink">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>9</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC6191F-85F2-380A-61DD-CF80E42CB34C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2632710" y="289560"/>
+            <a:ext cx="1181100" cy="350520"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Weapon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Types</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Group 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08667B9-0194-4403-9B93-9355DC48E3DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9227820" y="114300"/>
+          <a:ext cx="1386840" cy="739140"/>
+          <a:chOff x="2529840" y="289560"/>
+          <a:chExt cx="1386840" cy="739140"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="'pubg-weapon-stats'!X23">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle: Rounded Corners 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DEE864-A45C-A0E0-CA96-5CF5745E0818}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2529840" y="289560"/>
+            <a:ext cx="1386840" cy="739140"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{3EA86925-F96F-4B12-9A70-CE9AF3BFE399}" type="TxLink">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>44</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="4000" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="TextBox 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47D2113-DAA7-F39C-3EC9-19BEE1380AE2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2632710" y="289560"/>
+            <a:ext cx="1181100" cy="350520"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Weapon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>s</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Group 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02695A48-1D08-465C-A5D0-F04AC5D17D93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12115800" y="106680"/>
+          <a:ext cx="1386840" cy="739140"/>
+          <a:chOff x="2529840" y="289560"/>
+          <a:chExt cx="1386840" cy="739140"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="'pubg-weapon-stats'!X25">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Rectangle: Rounded Corners 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBAEAE0E-8CD1-EBDF-F364-24553BAD3ABF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2529840" y="289560"/>
+            <a:ext cx="1386840" cy="739140"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{012CC783-444C-4262-BAC8-93F18A81CEEE}" type="TxLink">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="4000" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="TextBox 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C25012C-6A1E-57FE-2486-354E938B0729}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2632710" y="289560"/>
+            <a:ext cx="1181100" cy="350520"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Fire Modes</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19112,312 +19215,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C819BF0E-2E58-4338-8D61-59E976D2ADE4}" name="Damage Range" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="AK5:AL9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="21">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Weapon Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFC02BE0-E045-4F66-A513-3F0B1F354F5F}" name="Shots to Kill (Chest &amp; Head) by Weapon Type" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="AF5:AH15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="21">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="9">
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of Shots to Kill (Chest)" fld="9" subtotal="average" baseField="1" baseItem="0"/>
-    <dataField name="Average of Shots to Kill (Head)" fld="10" subtotal="average" baseField="1" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC69CE9D-994B-4652-B4E9-FEB26BC8E14F}" name="Fire Modes Available for Each Weapon Type" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC69CE9D-994B-4652-B4E9-FEB26BC8E14F}" name="Fire Modes Available for Each Weapon Type" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="W5:AC16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField dataField="1" showAll="0"/>
@@ -19696,8 +19494,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61AC7DA5-F663-4477-933D-6B85F155D3F5}" name="Bullet Speed vs. Damage" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61AC7DA5-F663-4477-933D-6B85F155D3F5}" name="Bullet Speed vs. Damage" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="P5:R15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -19863,8 +19661,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01EF468A-8F37-4F44-A6EB-CB96C9084945}" name="Bullet Type Usage by Weapon Type" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01EF468A-8F37-4F44-A6EB-CB96C9084945}" name="Bullet Type Usage by Weapon Type" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
   <location ref="F5:M16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField dataField="1" showAll="0"/>
@@ -20242,8 +20040,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E94CEBA7-B8C4-4C6D-A8FC-D08D004AB3AC}" name="Weapon Type Distribution" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E94CEBA7-B8C4-4C6D-A8FC-D08D004AB3AC}" name="Weapon Type Distribution" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A5:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField dataField="1" showAll="0"/>
@@ -20383,6 +20181,311 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C819BF0E-2E58-4338-8D61-59E976D2ADE4}" name="Damage Range" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="AK5:AL9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="21">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Weapon Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFC02BE0-E045-4F66-A513-3F0B1F354F5F}" name="Shots to Kill (Chest &amp; Head) by Weapon Type" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="AF5:AH15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="21">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of Shots to Kill (Chest)" fld="9" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Average of Shots to Kill (Head)" fld="10" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -20885,16 +20988,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F12B3-87B4-4AE3-B904-6A617D644E4F}">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E45"/>
+      <selection pane="bottomLeft" activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="23" max="23" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -21952,7 +22056,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -22018,7 +22122,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -22084,7 +22188,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -22150,7 +22254,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -22216,7 +22320,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -22282,7 +22386,7 @@
         <v>137.69999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -22348,7 +22452,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -22413,8 +22517,15 @@
       <c r="U23">
         <v>64.5</v>
       </c>
+      <c r="W23" t="s">
+        <v>90</v>
+      </c>
+      <c r="X23">
+        <f>COUNTA(_xlfn.UNIQUE(A2:A45))</f>
+        <v>44</v>
+      </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -22479,8 +22590,15 @@
       <c r="U24">
         <v>61.3</v>
       </c>
+      <c r="W24" t="s">
+        <v>91</v>
+      </c>
+      <c r="X24">
+        <f>COUNTA(_xlfn.UNIQUE(B2:B45))</f>
+        <v>9</v>
+      </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -22545,8 +22663,15 @@
       <c r="U25">
         <v>56</v>
       </c>
+      <c r="W25" t="s">
+        <v>92</v>
+      </c>
+      <c r="X25">
+        <f>COUNTA(_xlfn.UNIQUE(M2:M45))</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -22612,7 +22737,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -22678,7 +22803,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -22744,7 +22869,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -22810,7 +22935,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -22876,7 +23001,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -22942,7 +23067,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -23962,7 +24087,7 @@
     <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="5" style="1" bestFit="1" customWidth="1"/>
@@ -23970,14 +24095,14 @@
     <col min="12" max="12" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="5.21875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="5"/>
+    <col min="15" max="15" width="8.88671875" style="4"/>
     <col min="16" max="16" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.77734375" style="1" customWidth="1"/>
     <col min="21" max="21" width="4.44140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7" style="5" customWidth="1"/>
+    <col min="22" max="22" width="7" style="4" customWidth="1"/>
     <col min="23" max="23" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.109375" style="1" bestFit="1" customWidth="1"/>
@@ -23986,12 +24111,12 @@
     <col min="28" max="28" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7.5546875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" style="5" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" style="4" customWidth="1"/>
     <col min="32" max="32" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="26.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.6640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="8.88671875" style="5"/>
+    <col min="36" max="36" width="8.88671875" style="4"/>
     <col min="37" max="37" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="40" width="3" style="1" bestFit="1" customWidth="1"/>
@@ -24063,7 +24188,7 @@
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -24093,10 +24218,10 @@
       <c r="P6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="6">
         <v>816.5</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="6">
         <v>45.2</v>
       </c>
       <c r="W6" s="2" t="s">
@@ -24123,16 +24248,16 @@
       <c r="AF6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AG6" s="6">
         <v>4</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AH6" s="6">
         <v>2</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AL6" s="6">
         <v>25</v>
       </c>
     </row>
@@ -24140,64 +24265,64 @@
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6">
         <v>6</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <v>4</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6">
         <v>10</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="6">
         <v>763</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="6">
         <v>50.833333333333336</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4">
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6">
         <v>6</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="6">
         <v>2</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AB7" s="6">
         <v>2</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="6">
         <v>10</v>
       </c>
       <c r="AF7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AG7" s="6">
         <v>3</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AH7" s="6">
         <v>2</v>
       </c>
       <c r="AK7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AL7" s="6">
         <v>4</v>
       </c>
     </row>
@@ -24205,64 +24330,64 @@
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
         <v>2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="6">
         <v>3</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="6">
         <v>1</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
         <v>6</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="6">
         <v>815</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="6">
         <v>48</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="6">
         <v>5</v>
       </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4">
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6">
         <v>1</v>
       </c>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4">
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6">
         <v>6</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AG8" s="6">
         <v>4</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AH8" s="6">
         <v>2</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AL8" s="6">
         <v>15</v>
       </c>
     </row>
@@ -24270,60 +24395,60 @@
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>1</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6">
         <v>2</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="6">
         <v>609.08947471828844</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="6">
         <v>55.6</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="6">
         <v>2</v>
       </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4">
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6">
         <v>2</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AG9" s="4">
+      <c r="AG9" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AH9" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="AK9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AL9" s="4">
+      <c r="AL9" s="6">
         <v>44</v>
       </c>
     </row>
@@ -24331,52 +24456,52 @@
       <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6">
         <v>5</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6">
         <v>5</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="6">
         <v>617.79695940731597</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="6">
         <v>106</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4">
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6">
         <v>5</v>
       </c>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4">
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6">
         <v>5</v>
       </c>
       <c r="AF10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AG10" s="4">
+      <c r="AG10" s="6">
         <v>2</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AH10" s="6">
         <v>1</v>
       </c>
     </row>
@@ -24384,52 +24509,52 @@
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
         <v>1</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6">
         <v>1</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="6">
         <v>434.75492249685794</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="6">
         <v>55.857142857142854</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4">
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6">
         <v>1</v>
       </c>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4">
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6">
         <v>1</v>
       </c>
       <c r="AF11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AG11" s="4">
+      <c r="AG11" s="6">
         <v>5.1428571428571432</v>
       </c>
-      <c r="AH11" s="4">
+      <c r="AH11" s="6">
         <v>2.7142857142857144</v>
       </c>
     </row>
@@ -24437,58 +24562,58 @@
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
         <v>2</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="6">
         <v>3</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="6">
         <v>1</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="6">
         <v>7</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="6">
         <v>360</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="6">
         <v>210</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="6">
         <v>7</v>
       </c>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4">
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6">
         <v>7</v>
       </c>
       <c r="AF12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AG12" s="4">
+      <c r="AG12" s="6">
         <v>1</v>
       </c>
-      <c r="AH12" s="4">
+      <c r="AH12" s="6">
         <v>1</v>
       </c>
     </row>
@@ -24496,52 +24621,52 @@
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
         <v>3</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="6">
         <v>3</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="6">
         <v>792.5</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="6">
         <v>81.25</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="6">
         <v>3</v>
       </c>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4">
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6">
         <v>3</v>
       </c>
       <c r="AF13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AG13" s="6">
         <v>2</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AH13" s="6">
         <v>1.25</v>
       </c>
     </row>
@@ -24549,56 +24674,56 @@
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="6">
         <v>1</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="6">
         <v>1</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6">
         <v>2</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6">
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="6">
         <v>301.66666666666669</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="6">
         <v>34</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4">
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6">
         <v>4</v>
       </c>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4">
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6">
         <v>4</v>
       </c>
       <c r="AF14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AG14" s="4">
+      <c r="AG14" s="6">
         <v>5.333333333333333</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AH14" s="6">
         <v>3.1666666666666665</v>
       </c>
     </row>
@@ -24606,56 +24731,56 @@
       <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="6">
         <v>44</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <v>2</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6">
         <v>4</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6">
         <v>6</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="6">
         <v>616.80747251083551</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="6">
         <v>63.340909090909093</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4">
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6">
         <v>3</v>
       </c>
-      <c r="AA15" s="4">
+      <c r="AA15" s="6">
         <v>3</v>
       </c>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4">
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6">
         <v>6</v>
       </c>
       <c r="AF15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AG15" s="4">
+      <c r="AG15" s="6">
         <v>3.8409090909090908</v>
       </c>
-      <c r="AH15" s="4">
+      <c r="AH15" s="6">
         <v>2.1363636363636362</v>
       </c>
     </row>
@@ -24663,46 +24788,46 @@
       <c r="F16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="6">
         <v>1</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="6">
         <v>5</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="6">
         <v>9</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="6">
         <v>17</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="6">
         <v>8</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="6">
         <v>4</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="6">
         <v>44</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="6">
         <v>17</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="6">
         <v>10</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z16" s="6">
         <v>10</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AA16" s="6">
         <v>5</v>
       </c>
-      <c r="AB16" s="4">
+      <c r="AB16" s="6">
         <v>2</v>
       </c>
-      <c r="AC16" s="4">
+      <c r="AC16" s="6">
         <v>44</v>
       </c>
     </row>
@@ -24724,12 +24849,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
